--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N2">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O2">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P2">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q2">
-        <v>178.227825082205</v>
+        <v>462.7758984334106</v>
       </c>
       <c r="R2">
-        <v>1604.050425739845</v>
+        <v>4164.983085900695</v>
       </c>
       <c r="S2">
-        <v>0.007043741637182231</v>
+        <v>0.01308516864123942</v>
       </c>
       <c r="T2">
-        <v>0.007043741637182231</v>
+        <v>0.01308516864123942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.5476</v>
       </c>
       <c r="O3">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P3">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q3">
-        <v>187.1212346926667</v>
+        <v>372.7153223286667</v>
       </c>
       <c r="R3">
-        <v>1684.091112234</v>
+        <v>3354.437900958001</v>
       </c>
       <c r="S3">
-        <v>0.007395218066526707</v>
+        <v>0.01053867080017409</v>
       </c>
       <c r="T3">
-        <v>0.007395218066526707</v>
+        <v>0.01053867080017409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N4">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O4">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P4">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q4">
-        <v>214.1548857312283</v>
+        <v>282.9224235809817</v>
       </c>
       <c r="R4">
-        <v>1927.393971581055</v>
+        <v>2546.301812228835</v>
       </c>
       <c r="S4">
-        <v>0.008463614953138233</v>
+        <v>0.007999741640559997</v>
       </c>
       <c r="T4">
-        <v>0.008463614953138233</v>
+        <v>0.007999741640559997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N5">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O5">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P5">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q5">
-        <v>170.5987785516294</v>
+        <v>167.7724433960428</v>
       </c>
       <c r="R5">
-        <v>1535.389006964665</v>
+        <v>1509.951990564385</v>
       </c>
       <c r="S5">
-        <v>0.006742234099430308</v>
+        <v>0.004743831134295565</v>
       </c>
       <c r="T5">
-        <v>0.006742234099430308</v>
+        <v>0.004743831134295565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N6">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O6">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P6">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q6">
-        <v>1087.108116029496</v>
+        <v>2178.591070269309</v>
       </c>
       <c r="R6">
-        <v>9783.973044265465</v>
+        <v>19607.31963242378</v>
       </c>
       <c r="S6">
-        <v>0.04296359840257194</v>
+        <v>0.06160051042259309</v>
       </c>
       <c r="T6">
-        <v>0.04296359840257193</v>
+        <v>0.06160051042259308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H7">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I7">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J7">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N7">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O7">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P7">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q7">
-        <v>268.1241510999289</v>
+        <v>938.3629486994063</v>
       </c>
       <c r="R7">
-        <v>2413.11735989936</v>
+        <v>8445.266538294656</v>
       </c>
       <c r="S7">
-        <v>0.01059653421773856</v>
+        <v>0.02653257758666362</v>
       </c>
       <c r="T7">
-        <v>0.01059653421773856</v>
+        <v>0.02653257758666362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N8">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O8">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P8">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q8">
-        <v>18.000446112016</v>
+        <v>23.46520329745244</v>
       </c>
       <c r="R8">
-        <v>162.004015008144</v>
+        <v>211.186829677072</v>
       </c>
       <c r="S8">
-        <v>0.0007113956067666865</v>
+        <v>0.0006634877559258067</v>
       </c>
       <c r="T8">
-        <v>0.0007113956067666866</v>
+        <v>0.0006634877559258067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>125.5476</v>
       </c>
       <c r="O9">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P9">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q9">
         <v>18.89865232853333</v>
@@ -1013,10 +1013,10 @@
         <v>170.0878709568</v>
       </c>
       <c r="S9">
-        <v>0.000746893613450777</v>
+        <v>0.0005343667499715177</v>
       </c>
       <c r="T9">
-        <v>0.0007468936134507771</v>
+        <v>0.0005343667499715178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
         <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N10">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O10">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P10">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q10">
-        <v>21.62896550217067</v>
+        <v>14.34567402755733</v>
       </c>
       <c r="R10">
-        <v>194.660689519536</v>
+        <v>129.111066248016</v>
       </c>
       <c r="S10">
-        <v>0.0008547983167417818</v>
+        <v>0.0004056295164858217</v>
       </c>
       <c r="T10">
-        <v>0.0008547983167417819</v>
+        <v>0.0004056295164858217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
         <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N11">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O11">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P11">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q11">
-        <v>17.22993656393422</v>
+        <v>8.506956618366223</v>
       </c>
       <c r="R11">
-        <v>155.069429075408</v>
+        <v>76.562609565296</v>
       </c>
       <c r="S11">
-        <v>0.0006809442999453927</v>
+        <v>0.0002405375093038626</v>
       </c>
       <c r="T11">
-        <v>0.0006809442999453928</v>
+        <v>0.0002405375093038626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
         <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N12">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O12">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P12">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q12">
-        <v>109.7944782275076</v>
+        <v>110.4661728040267</v>
       </c>
       <c r="R12">
-        <v>988.1503040475682</v>
+        <v>994.1955552362399</v>
       </c>
       <c r="S12">
-        <v>0.004339187427479912</v>
+        <v>0.003123474029624676</v>
       </c>
       <c r="T12">
-        <v>0.004339187427479912</v>
+        <v>0.003123474029624676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
         <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N13">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O13">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P13">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q13">
-        <v>27.07969045225244</v>
+        <v>47.58000023892089</v>
       </c>
       <c r="R13">
-        <v>243.717214070272</v>
+        <v>428.220002150288</v>
       </c>
       <c r="S13">
-        <v>0.001070216410218547</v>
+        <v>0.001345343024958932</v>
       </c>
       <c r="T13">
-        <v>0.001070216410218547</v>
+        <v>0.001345343024958932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N14">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O14">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P14">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q14">
-        <v>247.650999333731</v>
+        <v>404.3452787852009</v>
       </c>
       <c r="R14">
-        <v>2228.858994003579</v>
+        <v>3639.107509066808</v>
       </c>
       <c r="S14">
-        <v>0.009787414814113425</v>
+        <v>0.01143302012940642</v>
       </c>
       <c r="T14">
-        <v>0.009787414814113427</v>
+        <v>0.01143302012940642</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.5476</v>
       </c>
       <c r="O15">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P15">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q15">
-        <v>260.0085634598667</v>
+        <v>325.6558550794667</v>
       </c>
       <c r="R15">
-        <v>2340.0770711388</v>
+        <v>2930.9026957152</v>
       </c>
       <c r="S15">
-        <v>0.01027579808944803</v>
+        <v>0.009208046048091688</v>
       </c>
       <c r="T15">
-        <v>0.01027579808944804</v>
+        <v>0.00920804604809169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N16">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O16">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P16">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q16">
-        <v>297.5723428094223</v>
+        <v>247.2003114784027</v>
       </c>
       <c r="R16">
-        <v>2678.151085284801</v>
+        <v>2224.802803305624</v>
       </c>
       <c r="S16">
-        <v>0.01176035616298315</v>
+        <v>0.006989685017762978</v>
       </c>
       <c r="T16">
-        <v>0.01176035616298315</v>
+        <v>0.006989685017762978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H17">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N17">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O17">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P17">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q17">
-        <v>237.0502920850781</v>
+        <v>146.5893008410605</v>
       </c>
       <c r="R17">
-        <v>2133.452628765703</v>
+        <v>1319.303707569544</v>
       </c>
       <c r="S17">
-        <v>0.009368464277088826</v>
+        <v>0.004144869534044371</v>
       </c>
       <c r="T17">
-        <v>0.009368464277088828</v>
+        <v>0.004144869534044371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H18">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N18">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O18">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P18">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q18">
-        <v>1510.557687579585</v>
+        <v>1903.519644495373</v>
       </c>
       <c r="R18">
-        <v>13595.01918821626</v>
+        <v>17131.67680045836</v>
       </c>
       <c r="S18">
-        <v>0.05969874835459891</v>
+        <v>0.05382275880064678</v>
       </c>
       <c r="T18">
-        <v>0.05969874835459891</v>
+        <v>0.05382275880064678</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H19">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N19">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O19">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P19">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q19">
-        <v>372.5636776119501</v>
+        <v>819.8841585700259</v>
       </c>
       <c r="R19">
-        <v>3353.073098507552</v>
+        <v>7378.957427130232</v>
       </c>
       <c r="S19">
-        <v>0.01472408860561832</v>
+        <v>0.02318254368364256</v>
       </c>
       <c r="T19">
-        <v>0.01472408860561832</v>
+        <v>0.02318254368364256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N20">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O20">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P20">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q20">
-        <v>154.624773866136</v>
+        <v>202.2631561101731</v>
       </c>
       <c r="R20">
-        <v>1391.622964795224</v>
+        <v>1820.368404991558</v>
       </c>
       <c r="S20">
-        <v>0.006110925481576404</v>
+        <v>0.005719069460121811</v>
       </c>
       <c r="T20">
-        <v>0.006110925481576405</v>
+        <v>0.00571906946012181</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.5476</v>
       </c>
       <c r="O21">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P21">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q21">
-        <v>162.3404122592</v>
+        <v>162.9008288461334</v>
       </c>
       <c r="R21">
-        <v>1461.0637103328</v>
+        <v>1466.1074596152</v>
       </c>
       <c r="S21">
-        <v>0.00641585521621015</v>
+        <v>0.004606084336857596</v>
       </c>
       <c r="T21">
-        <v>0.006415855216210152</v>
+        <v>0.004606084336857596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H22">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N22">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O22">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P22">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q22">
-        <v>185.793945267784</v>
+        <v>123.6554939908193</v>
       </c>
       <c r="R22">
-        <v>1672.145507410056</v>
+        <v>1112.899445917374</v>
       </c>
       <c r="S22">
-        <v>0.007342762262937531</v>
+        <v>0.003496407219483715</v>
       </c>
       <c r="T22">
-        <v>0.007342762262937532</v>
+        <v>0.003496407219483714</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N23">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O23">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P23">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q23">
-        <v>148.0060565358853</v>
+        <v>73.32746589542157</v>
       </c>
       <c r="R23">
-        <v>1332.054508822968</v>
+        <v>659.947193058794</v>
       </c>
       <c r="S23">
-        <v>0.005849347162801974</v>
+        <v>0.002073362637346567</v>
       </c>
       <c r="T23">
-        <v>0.005849347162801975</v>
+        <v>0.002073362637346567</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H24">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N24">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O24">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P24">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q24">
-        <v>943.1403123029254</v>
+        <v>952.1859440774567</v>
       </c>
       <c r="R24">
-        <v>8488.262810726328</v>
+        <v>8569.673496697109</v>
       </c>
       <c r="S24">
-        <v>0.03727384702365677</v>
+        <v>0.02692342816090736</v>
       </c>
       <c r="T24">
-        <v>0.03727384702365677</v>
+        <v>0.02692342816090736</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H25">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N25">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O25">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P25">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q25">
-        <v>232.6159577650346</v>
+        <v>410.1256185192203</v>
       </c>
       <c r="R25">
-        <v>2093.543619885312</v>
+        <v>3691.130566672982</v>
       </c>
       <c r="S25">
-        <v>0.009193214956345166</v>
+        <v>0.01159646148510222</v>
       </c>
       <c r="T25">
-        <v>0.009193214956345166</v>
+        <v>0.01159646148510222</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H26">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N26">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O26">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P26">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q26">
-        <v>1285.476272554447</v>
+        <v>2260.090790112205</v>
       </c>
       <c r="R26">
-        <v>11569.28645299003</v>
+        <v>20340.81711100984</v>
       </c>
       <c r="S26">
-        <v>0.05080330605182039</v>
+        <v>0.06390494672095731</v>
       </c>
       <c r="T26">
-        <v>0.0508033060518204</v>
+        <v>0.06390494672095731</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H27">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.5476</v>
       </c>
       <c r="O27">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P27">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q27">
-        <v>1349.620392761733</v>
+        <v>1820.255700826933</v>
       </c>
       <c r="R27">
-        <v>12146.5835348556</v>
+        <v>16382.3013074424</v>
       </c>
       <c r="S27">
-        <v>0.05333834574091546</v>
+        <v>0.05146843838697691</v>
       </c>
       <c r="T27">
-        <v>0.05333834574091547</v>
+        <v>0.05146843838697691</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H28">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N28">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O28">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P28">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q28">
-        <v>1544.60182708356</v>
+        <v>1381.727886037715</v>
       </c>
       <c r="R28">
-        <v>13901.41644375204</v>
+        <v>12435.55097433944</v>
       </c>
       <c r="S28">
-        <v>0.0610442067464947</v>
+        <v>0.0390688937481655</v>
       </c>
       <c r="T28">
-        <v>0.0610442067464947</v>
+        <v>0.0390688937481655</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H29">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N29">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O29">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P29">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q29">
-        <v>1230.451428410468</v>
+        <v>819.3619318499975</v>
       </c>
       <c r="R29">
-        <v>11074.06285569421</v>
+        <v>7374.257386649978</v>
       </c>
       <c r="S29">
-        <v>0.04862866925985121</v>
+        <v>0.02316777751988238</v>
       </c>
       <c r="T29">
-        <v>0.04862866925985122</v>
+        <v>0.02316777751988238</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N30">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O30">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P30">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q30">
-        <v>7840.816596469883</v>
+        <v>10639.7364901769</v>
       </c>
       <c r="R30">
-        <v>70567.34936822894</v>
+        <v>95757.62841159206</v>
       </c>
       <c r="S30">
-        <v>0.3098769022434681</v>
+        <v>0.3008426902602545</v>
       </c>
       <c r="T30">
-        <v>0.3098769022434681</v>
+        <v>0.3008426902602545</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H31">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N31">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O31">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P31">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q31">
-        <v>1933.857601520914</v>
+        <v>4582.748292029348</v>
       </c>
       <c r="R31">
-        <v>17404.71841368822</v>
+        <v>41244.73462826413</v>
       </c>
       <c r="S31">
-        <v>0.07642798368846984</v>
+        <v>0.129578991569252</v>
       </c>
       <c r="T31">
-        <v>0.07642798368846984</v>
+        <v>0.129578991569252</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H32">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>39.860211</v>
+        <v>51.96137633333333</v>
       </c>
       <c r="N32">
-        <v>119.580633</v>
+        <v>155.884129</v>
       </c>
       <c r="O32">
-        <v>0.08465532840534135</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="P32">
-        <v>0.08465532840534136</v>
+        <v>0.1051013338704372</v>
       </c>
       <c r="Q32">
-        <v>258.053823494407</v>
+        <v>364.120227999231</v>
       </c>
       <c r="R32">
-        <v>2322.484411449663</v>
+        <v>3277.082051993079</v>
       </c>
       <c r="S32">
-        <v>0.01019854481388222</v>
+        <v>0.01029564116278641</v>
       </c>
       <c r="T32">
-        <v>0.01019854481388222</v>
+        <v>0.01029564116278641</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H33">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>125.5476</v>
       </c>
       <c r="O33">
-        <v>0.08887955383630083</v>
+        <v>0.0846476181307213</v>
       </c>
       <c r="P33">
-        <v>0.08887955383630085</v>
+        <v>0.08464761813072132</v>
       </c>
       <c r="Q33">
-        <v>270.9304792737333</v>
+        <v>293.2589804364</v>
       </c>
       <c r="R33">
-        <v>2438.3743134636</v>
+        <v>2639.3308239276</v>
       </c>
       <c r="S33">
-        <v>0.01070744310974971</v>
+        <v>0.008292011808649509</v>
       </c>
       <c r="T33">
-        <v>0.01070744310974971</v>
+        <v>0.00829201180864951</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H34">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.89520899999999</v>
+        <v>31.767079</v>
       </c>
       <c r="N34">
-        <v>143.685627</v>
+        <v>95.301237</v>
       </c>
       <c r="O34">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="P34">
-        <v>0.1017200999497333</v>
+        <v>0.06425469476884757</v>
       </c>
       <c r="Q34">
-        <v>310.0721621747996</v>
+        <v>222.608346132843</v>
       </c>
       <c r="R34">
-        <v>2790.649459573197</v>
+        <v>2003.475115195587</v>
       </c>
       <c r="S34">
-        <v>0.01225436150743795</v>
+        <v>0.006294337626389556</v>
       </c>
       <c r="T34">
-        <v>0.01225436150743795</v>
+        <v>0.006294337626389556</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H35">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>38.15399366666666</v>
+        <v>18.83781566666667</v>
       </c>
       <c r="N35">
-        <v>114.461981</v>
+        <v>56.513447</v>
       </c>
       <c r="O35">
-        <v>0.08103165494600567</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="P35">
-        <v>0.08103165494600569</v>
+        <v>0.03810290822689368</v>
       </c>
       <c r="Q35">
-        <v>247.0078230961878</v>
+        <v>132.006313527033</v>
       </c>
       <c r="R35">
-        <v>2223.070407865691</v>
+        <v>1188.056821743297</v>
       </c>
       <c r="S35">
-        <v>0.009761995846887968</v>
+        <v>0.00373252989202094</v>
       </c>
       <c r="T35">
-        <v>0.00976199584688797</v>
+        <v>0.00373252989202094</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H36">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>243.1290336666667</v>
+        <v>244.616435</v>
       </c>
       <c r="N36">
-        <v>729.387101</v>
+        <v>733.849305</v>
       </c>
       <c r="O36">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="P36">
-        <v>0.5163587365336566</v>
+        <v>0.4947812282762492</v>
       </c>
       <c r="Q36">
-        <v>1574.010151130002</v>
+        <v>1714.153826741895</v>
       </c>
       <c r="R36">
-        <v>14166.09136017001</v>
+        <v>15427.38444067705</v>
       </c>
       <c r="S36">
-        <v>0.06220645308188103</v>
+        <v>0.04846836660222286</v>
       </c>
       <c r="T36">
-        <v>0.06220645308188103</v>
+        <v>0.04846836660222286</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.96530133333332</v>
+        <v>105.3612136666667</v>
       </c>
       <c r="N37">
-        <v>179.895904</v>
+        <v>316.083641</v>
       </c>
       <c r="O37">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="P37">
-        <v>0.1273546263289621</v>
+        <v>0.213112216726851</v>
       </c>
       <c r="Q37">
-        <v>388.2135818613937</v>
+        <v>738.320495909799</v>
       </c>
       <c r="R37">
-        <v>3493.922236752544</v>
+        <v>6644.884463188191</v>
       </c>
       <c r="S37">
-        <v>0.0153425884505717</v>
+        <v>0.02087629937723168</v>
       </c>
       <c r="T37">
-        <v>0.0153425884505717</v>
+        <v>0.02087629937723168</v>
       </c>
     </row>
   </sheetData>
